--- a/Base-宽表/用户宽表整理/用户相关表.xlsx
+++ b/Base-宽表/用户宽表整理/用户相关表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="b_user_profile" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="217">
-  <si>
-    <t>df_user_profile</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="217">
   <si>
     <t>字段名</t>
   </si>
@@ -612,10 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身份证号加密保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>末次消费eshop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2414,6 +2407,14 @@
   </si>
   <si>
     <t>b_user_first_order_store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_user_profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2490,7 +2491,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2512,12 +2513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2618,42 +2613,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2673,9 +2632,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2698,17 +2654,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3004,10 +2999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3016,438 +3011,443 @@
     <col min="2" max="2" width="24.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="16.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="23" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38"/>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="38"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="38"/>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42.75">
+      <c r="A10" s="38"/>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="38"/>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="24"/>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="38"/>
+      <c r="B14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="D21" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="38"/>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="6" t="s">
+      <c r="C23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="40"/>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="40"/>
+      <c r="B25" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="40"/>
+      <c r="B26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="40"/>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42.75">
-      <c r="A10" s="24"/>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="D27" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="40"/>
+      <c r="B28" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="40"/>
+      <c r="B29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="40"/>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="40"/>
+      <c r="B31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="24"/>
-      <c r="B12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="26"/>
-      <c r="B26" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="26"/>
-      <c r="B27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="26"/>
-      <c r="B28" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="26"/>
-      <c r="B29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="26"/>
-      <c r="B31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="36"/>
+      <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="20"/>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="5" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="36"/>
+      <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="5" t="s">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="36"/>
+      <c r="B35" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="20"/>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="A23:A31"/>
@@ -3463,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="14.25"/>
@@ -3474,285 +3474,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="A1" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="12" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="12" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3782,92 +3782,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:4" s="19" customFormat="1">
+      <c r="A2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54.75">
+      <c r="A5" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" s="31" customFormat="1">
-      <c r="A2" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="54.75">
-      <c r="A5" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3896,130 +3896,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="203.25">
+      <c r="A4" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.75">
+      <c r="A5" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" ht="327.75">
+      <c r="A11" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="1:4" ht="203.25">
-      <c r="A4" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="41.25">
-      <c r="A5" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="39" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="54.75">
+      <c r="A12" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="39"/>
-    </row>
-    <row r="11" spans="1:4" ht="327.75">
-      <c r="A11" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="C12" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="68.25">
-      <c r="A12" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4047,54 +4047,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
         <v>118</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4124,98 +4124,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="A1" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="D2" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>200</v>
+        <v>170</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="46"/>
+        <v>194</v>
+      </c>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="46"/>
+        <v>195</v>
+      </c>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="46"/>
+        <v>196</v>
+      </c>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4246,111 +4246,111 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>215</v>
+        <v>170</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="46"/>
+        <v>207</v>
+      </c>
+      <c r="D4" s="47"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="46"/>
+        <v>209</v>
+      </c>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="46"/>
+        <v>210</v>
+      </c>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="46"/>
+        <v>211</v>
+      </c>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="46"/>
+        <v>212</v>
+      </c>
+      <c r="D9" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4359,5 +4359,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>